--- a/LaserCo2Board BOM_20170119.xlsx
+++ b/LaserCo2Board BOM_20170119.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="209">
   <si>
     <t>Part / Value</t>
   </si>
@@ -43,19 +43,19 @@
   </si>
   <si>
     <t>0603</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>LI0603G221R-10</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>Laird-Signal Integrity Products</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>LED</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>ON Semiconductor</t>
@@ -86,61 +86,61 @@
   </si>
   <si>
     <t>Tantalum Capacitor</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>Ceramic Capacitor</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>Aluminum Capacitor</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>220Ω@100MHz, 700mA</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>Ferrite bead</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>Crystal</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>RTC Crystal</t>
   </si>
   <si>
     <t>32.768KHz, 7pF</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>5032</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>0805</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>25MHz, 18pF</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>http://www.digikey.jp/product-detail/ja/txc-corporation/7B-25.000MAAJ-T/887-1112-2-ND/2118796</t>
   </si>
   <si>
     <t>7B-25.000MAAJ-T</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>TXC CORPORATION</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>9HT10-32.768KDZY-T</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>http://www.digikey.jp/product-detail/ja/txc-corporation/9HT10-32.768KDZY-T/887-1506-2-ND/2690359</t>
@@ -162,30 +162,30 @@
   </si>
   <si>
     <t>Resistor</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>http://www.seeedstudio.com/depot/images/opl/datasheet/311020029.pdf</t>
   </si>
   <si>
     <t>2-SMD</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>http://www.digikey.jp/product-detail/ja/LI0603G221R-10/240-2368-1-ND/806728</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>2V, 3mA, Red</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>2V, 3mA, Green</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>2V, 3mA, Blue</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>L1</t>
@@ -273,11 +273,11 @@
   </si>
   <si>
     <t>4P Connector</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>URL</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>6.3 x 7.7mm</t>
@@ -326,11 +326,11 @@
   </si>
   <si>
     <t>USB Type B Connector</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>Connector</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>0R, 1/10W</t>
@@ -371,53 +371,53 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>SW2</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>DIP Switch</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>http://www.seeedstudio.com/depot/images/opl/datasheet/3010010P1.pdf</t>
   </si>
   <si>
     <t>DG De Yi Long Electronics Hardware Limited</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>MS-22D18 G2</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>MS-22D18</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>L2</t>
   </si>
   <si>
     <t>BLM21PG221SN1D</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>Murata Electronics North America</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>http://www.digikey.jp/product-detail/ja/murata-electronics-north-america/BLM21PG221SN1D/490-1054-2-ND/364909</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>0805</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>220Ω@100MHz, 2A</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <r>
@@ -434,7 +434,7 @@
       </rPr>
       <t>4</t>
     </r>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <r>
@@ -451,7 +451,7 @@
       </rPr>
       <t>7</t>
     </r>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <r>
@@ -468,15 +468,15 @@
       </rPr>
       <t>8</t>
     </r>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>74HC08A</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>TSSOP-14</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <r>
@@ -493,29 +493,29 @@
       </rPr>
       <t>5</t>
     </r>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>http://www.digikey.jp/product-detail/ja/on-semiconductor/MC74HC08ADTR2G/MC74HC08ADTR2GOSTR-ND/919179</t>
   </si>
   <si>
     <t>MC74HC08ADTR2G</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>MCP4725</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>SOT-23-6</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>U6</t>
   </si>
   <si>
     <t>MCP4725A0T-E/CH</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>http://www.digikey.jp/product-detail/ja/microchip-technology/MCP4725A0T-E-CH/MCP4725A0T-E-CHTR-ND/1818537</t>
@@ -535,7 +535,7 @@
       </rPr>
       <t>4</t>
     </r>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <r>
@@ -552,7 +552,7 @@
       </rPr>
       <t>6</t>
     </r>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <r>
@@ -569,7 +569,7 @@
       </rPr>
       <t>7</t>
     </r>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <r>
@@ -586,44 +586,44 @@
       </rPr>
       <t>4,D5,D8</t>
     </r>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>ESD</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>http://www.digikey.jp/product-detail/ja/bourns-inc/CG0603MLC-05E/CG0603MLC-05ETR-ND/2538084</t>
   </si>
   <si>
     <t>VR1,VR2</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>CG0603MLC-05E</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>Bourns Inc.</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>VARISTOR 0603</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>R35</t>
   </si>
   <si>
     <t>1k5, 1/2W, 5%</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>R36</t>
   </si>
   <si>
     <t>390R, 1/10W, 5%</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>R2,R4</t>
@@ -633,75 +633,75 @@
   </si>
   <si>
     <t>R16,R17,R18,R25,R26,R45</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>3P Connector</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>B4B-XH-A(LF)(SN)</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>B3B-XH-A(LF)(SN)</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>J11,J12,J14</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>J10,J13</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>C1,C2,C9,C10</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>C15,C16</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>C19,C22</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>C3,C4,C7,C8,C23</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>Any</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>C24,C30</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>C35</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>R6,R7</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>R32</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>R8,R9,R10,R11</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>C5,C6,C39</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>1k5, 1/10W, 5%</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <r>
@@ -729,23 +729,23 @@
       </rPr>
       <t>J9,J15,J16,J17,J18,J19,J20</t>
     </r>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>47R, 1/10W, 5%</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>R34</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>TR1</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>R41</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>Other</t>
@@ -761,30 +761,30 @@
   </si>
   <si>
     <t>BLM21SN300SN1D</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>30Ω@100MHz, 8.5A</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>http://www.digikey.jp/product-detail/ja/murata-electronics-north-america/BLM21SN300SN1D/490-13266-6-ND/5881281</t>
   </si>
   <si>
     <t>L3,L4</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>220R, 1/10W, 5%</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>R39,R40</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>R27</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <r>
@@ -801,11 +801,11 @@
       </rPr>
       <t>9</t>
     </r>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>TOSHIBA</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <r>
@@ -822,37 +822,37 @@
       </rPr>
       <t>LP2355</t>
     </r>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>SO6</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>http://www.mouser.jp/ProductDetail/Toshiba/TLP2355TPLE/?qs=WTEd434rUSVWPmGECKBFzA%3D%3D</t>
   </si>
   <si>
     <t>U10</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>IB0505S-1W</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>IB0505S-1W</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>Shenzhen Sunyuan Technology</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>http://www.szsunyuan.com/download/html/DownDetail_34.html</t>
   </si>
   <si>
     <t>SIP</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <r>
@@ -869,95 +869,95 @@
       </rPr>
       <t>5</t>
     </r>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>http://www.digikey.jp/product-detail/ja/tdk-corporation/MLZ2012N100LT000/445-6762-2-ND/2523500</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>Inductor</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>TDK Corporation</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>MLZ2012N100LT000</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>10µH, 500mA</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>C25,C41,C43</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>C11,C12,C13,C14,C17,C18,C20,C21,C26,C27,C28,C29,C31,C33,C36,C38,C40,C42</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>U11</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>ADUM1250</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>Analog Devices Inc.</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>8-SOIC</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>ADUM1250ARZ-RL7</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>C32,C34</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>R1,R3,R5,R12,R13,R14,R15,R19,R20,R21,R22,R23,R24,R42</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>R28,R29,R30,R31,R37,R38,R43</t>
-    <phoneticPr fontId="16"/>
-  </si>
-  <si>
-    <t>V=IR</t>
-    <phoneticPr fontId="16"/>
-  </si>
-  <si>
-    <t>I=V/R</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>R33</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
   <si>
     <t>1k, 1/10W, 5%</t>
-    <phoneticPr fontId="16"/>
+    <phoneticPr fontId="17"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="56">
+  <fonts count="57">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1710,262 +1710,346 @@
   </borders>
   <cellStyleXfs count="937">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2010,12 +2094,54 @@
     <xf numFmtId="0" fontId="12" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2052,6 +2178,12 @@
     <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2178,2610 +2310,2478 @@
     <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="46"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="46"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="46" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="87" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="46" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="87" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="46"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="46"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="46"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="101" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="46" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="87" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="46"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="101" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="46" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="87" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="46"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="46"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="46"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="46"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="159">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="159">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="159">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="159">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="159">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="159">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="159">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="159">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="159" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="159" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="159">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="159">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="159">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="159">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="159">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="159">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="159">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="159">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="46"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="46"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="231">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="231">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="231">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="231">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="229">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="229">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="46" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="46" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="159">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="159">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="159">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="159">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="159">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="159">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="231">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="229">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="231">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="229">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="159">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="159">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="229" applyFill="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="229" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="87" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="231" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="87" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="231" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="229" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="159" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="499" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="229" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="87" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="229" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="229" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="499" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="229" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="159" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="499" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="229" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="87" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="229" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="229" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="229" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="499" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="229" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="229" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="229" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="229" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="597" applyFill="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="597" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="101" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="229" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="231" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="101" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="229" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="231" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="101" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6026,8 +6026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43:M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6804,9 +6804,6 @@
       <c r="G44" s="30">
         <v>2</v>
       </c>
-      <c r="L44" s="24" t="s">
-        <v>207</v>
-      </c>
     </row>
     <row r="45" spans="1:12" s="78" customFormat="1">
       <c r="B45" s="102" t="s">
@@ -6826,9 +6823,6 @@
       </c>
       <c r="G45" s="72">
         <v>1</v>
-      </c>
-      <c r="L45" s="78" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -6851,10 +6845,6 @@
       <c r="G46" s="43">
         <v>5</v>
       </c>
-      <c r="L46">
-        <f>5/1000</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="24"/>
@@ -6876,10 +6866,6 @@
       <c r="G47" s="43">
         <v>2</v>
       </c>
-      <c r="L47">
-        <f>L46*5</f>
-        <v>2.5000000000000001E-2</v>
-      </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="24"/>
@@ -7096,7 +7082,7 @@
     </row>
     <row r="63" spans="1:8" s="119" customFormat="1">
       <c r="B63" s="102" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C63" s="98" t="s">
         <v>88</v>
@@ -7108,7 +7094,7 @@
         <v>6</v>
       </c>
       <c r="F63" s="113" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G63" s="35">
         <v>1</v>
@@ -7378,7 +7364,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16"/>
+  <phoneticPr fontId="17"/>
   <hyperlinks>
     <hyperlink ref="H5" r:id="rId1"/>
     <hyperlink ref="H53" r:id="rId2"/>
@@ -7397,7 +7383,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="16"/>
+  <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7410,7 +7396,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="16"/>
+  <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>